--- a/src/ExcelsiorSyncfusion.Tests/StyleTests.HeadingStyle.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/StyleTests.HeadingStyle.verified.xlsx
@@ -206,13 +206,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.41796875" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.84765625" customWidth="1"/>
-    <col min="5" max="5" width="19.27734375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.41796875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.84765625" customWidth="1"/>
+    <col min="5" max="5" width="21.27734375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/ExcelsiorSyncfusion.Tests/StyleTests.HeadingStyle.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/StyleTests.HeadingStyle.verified.xlsx
@@ -77,9 +77,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -178,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/src/ExcelsiorSyncfusion.Tests/StyleTests.HeadingStyle.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/StyleTests.HeadingStyle.verified.xlsx
@@ -205,13 +205,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.41796875" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.84765625" customWidth="1"/>
-    <col min="5" max="5" width="21.27734375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -237,7 +237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="28.5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -260,7 +260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="28.5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -283,7 +283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="28.5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -306,7 +306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="28.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
